--- a/output/measure/森ひかる_measure.xlsx
+++ b/output/measure/森ひかる_measure.xlsx
@@ -1,126 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
-  <si>
-    <t>レポート年</t>
-  </si>
-  <si>
-    <t>レポート月</t>
-  </si>
-  <si>
-    <t>名前</t>
-  </si>
-  <si>
-    <t>立ち幅跳びー脚</t>
-  </si>
-  <si>
-    <t>立ち幅跳びー全身</t>
-  </si>
-  <si>
-    <t>バックスクラッチ 右が上</t>
-  </si>
-  <si>
-    <t>バックスクラッチ 左が上</t>
-  </si>
-  <si>
-    <t>倒立 (秒)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">閉眼片足 右 (秒) </t>
-  </si>
-  <si>
-    <t>閉眼片足 (左)</t>
-  </si>
-  <si>
-    <t>Power Max 10秒</t>
-  </si>
-  <si>
-    <t>Power Max 40秒</t>
-  </si>
-  <si>
-    <t>20本ジャンプ (秒)</t>
-  </si>
-  <si>
-    <t>2020年度</t>
-  </si>
-  <si>
-    <t>1月</t>
-  </si>
-  <si>
-    <t>2月</t>
-  </si>
-  <si>
-    <t>3月</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>5月</t>
-  </si>
-  <si>
-    <t>6月</t>
-  </si>
-  <si>
-    <t>7月</t>
-  </si>
-  <si>
-    <t>8月</t>
-  </si>
-  <si>
-    <t>9月</t>
-  </si>
-  <si>
-    <t>10月</t>
-  </si>
-  <si>
-    <t>11月</t>
-  </si>
-  <si>
-    <t>12月</t>
-  </si>
-  <si>
-    <t>森ひかる</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,547 +420,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>レポート年</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>レポート月</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>立ち幅跳びー脚</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>立ち幅跳びー全身</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>バックスクラッチ 右が上</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>バックスクラッチ 左が上</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>倒立 (秒)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">閉眼片足 右 (秒) </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>閉眼片足 (左)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Power Max 10秒</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Power Max 40秒</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>20本ジャンプ (秒)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1月</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>190.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>196.9</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>3.380700550251724</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>1.1380801530481</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>115.5637153916915</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>39.84053961351393</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>170.1216706862958</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>390.7188237986533</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>426.6222505806804</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>15.51</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>195.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>221.4</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2.374881916600371</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>4.094820330304945</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>107.1272434673094</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>2.484998373053315</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>120.4284517660812</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>419.5937359862999</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>491.4868098983799</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>15.365</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>195.6</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>190.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>4.074446807441687</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>4.004098104831691</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>84.35808155993034</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>78.93116356392699</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>156.3045530863785</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>376.2017466162766</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>395.9155880603043</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>16.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4月</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>190</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>224.7</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>4.785602834349516</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>3.183747256438517</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>96.07198963054203</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>152.9902388860746</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>161.6868430407609</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>413.0530956377645</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>481.8591151166941</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>15.79</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5月</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>192.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>207.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>4.177149633533384</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1.214548163093428</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>139.7091299845422</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>80.53743473623882</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>105.3491847449421</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>453.0868820996778</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>373.4616095060372</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>15.94</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6月</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>182.4</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>213.8</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>3.239558865609404</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>4.623227130840985</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>121.8753292409831</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>61.04548697620513</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>20.00338645902465</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>456.3210288788899</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>448.4168091757355</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>16.42</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7月</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>199.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>218.1</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>4.330028566834123</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1.204467955773489</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>143.7458380839439</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>176.2580673567719</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>148.2364838083825</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>394.2226662998113</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>490.1096853326181</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>15.72</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8月</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>196.5</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>189.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>2.282295654484104</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>2.28796156250095</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>155.5406133357416</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>75.90437968660858</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>97.68298841085627</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>446.8490910384056</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>364.3168602374939</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>15.975</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9月</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>186.7</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>195</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>3.38400590899213</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>1.752210183368229</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>13.53298475996453</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>121.6232643306172</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>146.7740507312213</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>363.890898895544</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>410.5060665538612</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>15.79</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10月</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>183.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>217.1</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>4.371880192725927</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>4.905163966147674</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>31.44817245828006</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>122.406539158491</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>179.0495781936933</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>490.2426515789833</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>426.101661853306</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>15.615</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11月</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>197.1</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>205.3</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>4.549680184307888</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>1.06382562801874</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>17.44948580570485</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>154.7472007981188</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>114.7672750456603</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>462.8331893025875</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>379.9727805264701</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>15.405</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020年度</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12月</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>森ひかる</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>180</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>214.5</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>1.917378653407794</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>3.044161940776683</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>170.9625886291277</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>158.1874891789423</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>150.5082304996658</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>463.0113642055042</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>388.6209744817373</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>16.34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>